--- a/src/test/resources/datasource.xlsx
+++ b/src/test/resources/datasource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3855" yWindow="60" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="COUNTRY" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="732">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -2557,7 +2557,7 @@
   <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3124,6 +3124,9 @@
       <c r="E9" s="2">
         <v>14000000</v>
       </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
